--- a/DPC/新建 Microsoft Excel 工作表.xlsx
+++ b/DPC/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fred\ISP\ISPAlgorithmStudy\DPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E007AB4C-7204-4EB4-B400-80FC2B7E31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B437F67F-A5CE-408B-8669-545F1BCFDF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Pc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,34 @@
   <si>
     <t>P8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
   </si>
 </sst>
 </file>
@@ -142,13 +170,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="Q7:AG17"/>
+  <dimension ref="Q7:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
       <c r="S7" s="2"/>
@@ -454,7 +485,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -471,7 +502,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q9" s="2"/>
       <c r="R9" s="1"/>
       <c r="S9" s="2"/>
@@ -488,7 +519,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -505,7 +536,7 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q11" s="2"/>
       <c r="R11" s="1"/>
       <c r="S11" s="2"/>
@@ -522,7 +553,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="13" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q13" s="5" t="s">
         <v>1</v>
       </c>
@@ -535,14 +566,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q15" s="5" t="s">
         <v>4</v>
       </c>
@@ -555,14 +586,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="17:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="17:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="17:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="17:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q17" s="5" t="s">
         <v>6</v>
       </c>
@@ -573,6 +604,64 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="17:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="17:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
